--- a/raw_data/government/cpi.xlsx
+++ b/raw_data/government/cpi.xlsx
@@ -56,7 +56,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1913 to 2023</t>
+    <t>1913 to 2024</t>
   </si>
   <si>
     <t>Year</t>
@@ -5284,6 +5284,32 @@
         <v>306.996</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n" s="7">
+        <v>2024.0</v>
+      </c>
+      <c r="B124" t="n" s="14">
+        <v>308.417</v>
+      </c>
+      <c r="C124" t="n" s="14">
+        <v>310.326</v>
+      </c>
+      <c r="D124" t="n" s="14">
+        <v>312.332</v>
+      </c>
+      <c r="E124" t="n" s="14">
+        <v>313.548</v>
+      </c>
+      <c r="F124" t="n" s="14">
+        <v>314.069</v>
+      </c>
+      <c r="G124" t="n" s="14">
+        <v>314.175</v>
+      </c>
+      <c r="N124" t="n" s="14">
+        <v>312.145</v>
+      </c>
+    </row>
     <row r="10000"/>
   </sheetData>
   <mergeCells>
@@ -5302,7 +5328,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 13, 2024 (03:57:32 PM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 14, 2024 (05:15:25 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
